--- a/medicine/Enfance/Marissa_Meyer/Marissa_Meyer.xlsx
+++ b/medicine/Enfance/Marissa_Meyer/Marissa_Meyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marissa Meyer, née le 19 février 1984 à Tacoma dans l'État de Washington, est une romancière et nouvelliste américaine.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Tacoma, Marissa Meyer fait des études de littérature à l'Université luthérienne du Pacifique (en), où elle est diplômée en écriture créative. Avant d'écrire Cinder, Meyer a travaillé comme éditrice durant cinq ans. Elle a également écrit des récits de fan-fiction d'après le manga Sailor Moon sous le pseudonyme d'Alicia Blade[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Tacoma, Marissa Meyer fait des études de littérature à l'Université luthérienne du Pacifique (en), où elle est diplômée en écriture créative. Avant d'écrire Cinder, Meyer a travaillé comme éditrice durant cinq ans. Elle a également écrit des récits de fan-fiction d'après le manga Sailor Moon sous le pseudonyme d'Alicia Blade.
 Meyer affirme avoir été inspirée pour écrire Cinder, premier tome des Chroniques lunaires, après avoir participé à un concours d'écriture en 2008, avec une histoire centrée autour d'un Chat botté futuriste.
 </t>
         </is>
@@ -545,28 +559,249 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Les Chroniques lunaires
-Cinder[2], Pocket Jeunesse, 2013 ((en) Cinder (en), 2012)
-Scarlet[3], Pocket Jeunesse, 2013 ((en) Scarlet (en), 2013)
-Cress[4], Pocket Jeunesse, 2014 ((en) Cress (en), 2014)
-Winter[5], Pocket Jeunesse, 2016 ((en) Winter (en), 2015)
-Spin-off
-Levana[6], Pocket Jeunesse, 2015 ((en) Fairest: Levana's Story, 2015)Préquelle
-(en) Stars Above, 2016Recueil de nouvelles
-Série Wires and Nerve
-(en) Wires and Nerve, 2017Adaptation en roman graphique, illustré par Douglas Holgate
-(en) Wires and Nerve: Gone Rogue, 2018Adaptation en roman graphique, illustré par Stephen Gilpin
-Autres
-(en) Cinder’s Adventure: Get Me to the Wedding!, 2022Ebook interactif
-Série Le Gang des prodiges
-Le Gang des prodiges[7], Pocket Jeunesse, 2018 ((en) Renegades, 2017)
+          <t>Série Les Chroniques lunaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cinder, Pocket Jeunesse, 2013 ((en) Cinder (en), 2012)
+Scarlet, Pocket Jeunesse, 2013 ((en) Scarlet (en), 2013)
+Cress, Pocket Jeunesse, 2014 ((en) Cress (en), 2014)
+Winter, Pocket Jeunesse, 2016 ((en) Winter (en), 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les Chroniques lunaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Spin-off</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Levana, Pocket Jeunesse, 2015 ((en) Fairest: Levana's Story, 2015)Préquelle
+(en) Stars Above, 2016Recueil de nouvelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Les Chroniques lunaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Wires and Nerve</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Wires and Nerve, 2017Adaptation en roman graphique, illustré par Douglas Holgate
+(en) Wires and Nerve: Gone Rogue, 2018Adaptation en roman graphique, illustré par Stephen Gilpin</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Les Chroniques lunaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Cinder’s Adventure: Get Me to the Wedding!, 2022Ebook interactif</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Le Gang des prodiges</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Gang des prodiges, Pocket Jeunesse, 2018 ((en) Renegades, 2017)
 Ennemis jurés, Pocket Jeunesse, 2019 ((en) Archenemies, 2018)
-Supernova, Pocket Jeunesse, 2020 ((en) Supernova, 2019)
-Série Gilded
-Gilded, De Saxus, 2023 ((en) Gilded, 2021), trad. Arnaud Mousnier-Lompré, 544 p.  (ISBN 978-2-37876-270-4)
-Cursed, De Saxus, 2023 ((en) Cursed, 2022), trad. Arnaud Mousnier-Lompré, 560 p.  (ISBN 978-2-37876-349-7)
-Romans indépendants
-Heartless[8], Pocket Jeunesse, 2017 ((en) Heartless, 2016)
+Supernova, Pocket Jeunesse, 2020 ((en) Supernova, 2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Gilded</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gilded, De Saxus, 2023 ((en) Gilded, 2021), trad. Arnaud Mousnier-Lompré, 544 p.  (ISBN 978-2-37876-270-4)
+Cursed, De Saxus, 2023 ((en) Cursed, 2022), trad. Arnaud Mousnier-Lompré, 560 p.  (ISBN 978-2-37876-349-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marissa_Meyer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Heartless, Pocket Jeunesse, 2017 ((en) Heartless, 2016)
 Instant Karma, Pocket Jeunesse, 2021 ((en) Instant Karma, 2020)
 (en) With a Little Luck, 2024</t>
         </is>
